--- a/Сравнение тестовых фреймворков.xlsx
+++ b/Сравнение тестовых фреймворков.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\TestsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916173E-D393-4297-80BE-C677AED6F134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F19F757-A725-4BD0-940A-98196E575AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1505,7 +1505,7 @@
   <dimension ref="B10:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Сравнение тестовых фреймворков.xlsx
+++ b/Сравнение тестовых фреймворков.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\TestsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F19F757-A725-4BD0-940A-98196E575AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5561D-041E-4320-A469-E1762C94A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600C3287-06EE-4BC3-812A-F44B1729546F}">
   <dimension ref="B10:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Сравнение тестовых фреймворков.xlsx
+++ b/Сравнение тестовых фреймворков.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\TestsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5561D-041E-4320-A469-E1762C94A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F63C64-E6D8-41D5-8BDC-CB4279FC44E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Жизненный цикл" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>MSTests</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>В настройках каждый класс - это отдельная коллекция</t>
-  </si>
-  <si>
-    <t>Нужно каждый тест размещать в отдельной, уникальной коллекции</t>
   </si>
 </sst>
 </file>
@@ -757,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1418,7 @@
   <dimension ref="B10:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600C3287-06EE-4BC3-812A-F44B1729546F}">
   <dimension ref="B10:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,9 +1606,7 @@
       <c r="F14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="G14" s="17"/>
       <c r="H14" s="10" t="s">
         <v>59</v>
       </c>
